--- a/Recycling/Met_rec/metrec_Max_hist_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>95388.41488819556</v>
+        <v>95388.41488819558</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>634503.6093493011</v>
+        <v>634503.609349301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>806653.9762728699</v>
+        <v>806653.9762728701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1998651.653451596</v>
+        <v>1998651.653451595</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>909749.2385804427</v>
+        <v>909749.2385804425</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>879339.248881256</v>
+        <v>879339.2488812557</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_hist_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist_Min.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.5988371019869603</v>
+        <v>0.5988371019869602</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6972955.366808729</v>
+        <v>6972955.36680873</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.3634155134603887</v>
+        <v>0.3634155134603886</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7.415291509010417</v>
+        <v>7.415291509010418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8.726348775973383</v>
+        <v>8.726348775973385</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>34.63031767977922</v>
+        <v>34.63031767977921</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>59.12699217265128</v>
+        <v>59.12699217265126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>356.6340414490326</v>
+        <v>356.6340414490327</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4008,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>48.92528799360775</v>
+        <v>48.92528799360776</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>794.727561042691</v>
+        <v>794.7275610426909</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5640,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1061.058837818543</v>
+        <v>1061.058837818544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>10219.57665791473</v>
+        <v>10219.57665791474</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6996,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>19968.92504431606</v>
+        <v>19968.92504431605</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>80653.28344044219</v>
+        <v>80653.2834404422</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>255875.0319891805</v>
+        <v>255875.0319891806</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>577493.2205143841</v>
+        <v>577493.2205143842</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10580,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>332162.8936272217</v>
+        <v>332162.8936272216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10740,7 +10740,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>848378.7564302484</v>
+        <v>848378.7564302485</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10784,7 +10784,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>401201.845073914</v>
+        <v>401201.8450739139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>498207.9524614463</v>
+        <v>498207.9524614464</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11760,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1956045.014193029</v>
+        <v>1956045.01419303</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11892,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>958982.9935869975</v>
+        <v>958982.9935869976</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1398366.657240774</v>
+        <v>1398366.657240775</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3072832.373979337</v>
+        <v>3072832.373979336</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1569015.947586572</v>
+        <v>1569015.947586571</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14208,7 +14208,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2445905.914097534</v>
+        <v>2445905.914097535</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14616,7 +14616,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2491320.768189574</v>
+        <v>2491320.768189573</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4857326.905694952</v>
+        <v>4857326.905694951</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16176,7 +16176,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>822114.8053478356</v>
+        <v>822114.8053478358</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16584,7 +16584,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>734518.3376234191</v>
+        <v>734518.337623419</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16992,7 +16992,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>700048.8547457437</v>
+        <v>700048.8547457438</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1741798.551305558</v>
+        <v>1741798.551305557</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4616348.687933662</v>
+        <v>4616348.687933663</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18172,7 +18172,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4746145.687114531</v>
+        <v>4746145.68711453</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18580,7 +18580,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4980194.056517747</v>
+        <v>4980194.056517746</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18696,7 +18696,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1848207.884758586</v>
+        <v>1848207.884758587</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5110966.410681818</v>
+        <v>5110966.410681819</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1670924.508269996</v>
+        <v>1670924.508269995</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>985963.4032962123</v>
+        <v>985963.4032962121</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20532,7 +20532,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1590758.435287238</v>
+        <v>1590758.435287239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
